--- a/bulletin/macroeconomics/static/macroeconomics/tables/industrial_production_volume_at_current_prices.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/industrial_production_volume_at_current_prices.xlsx
@@ -424,8 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Показатели 
-(млн тенге)</t>
+          <t>Регионы (млн тенге)</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -443,7 +442,7 @@
       <c r="F1" t="inlineStr">
         <is>
           <t>2023
-Январь - Март</t>
+ Январь - Октябрь</t>
         </is>
       </c>
     </row>
@@ -475,7 +474,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11 234 031</t>
+          <t>38 119 725</t>
         </is>
       </c>
     </row>
@@ -495,7 +494,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>321 905</t>
+          <t>1 262 544</t>
         </is>
       </c>
     </row>
@@ -527,7 +526,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>408 747</t>
+          <t>1 416 992</t>
         </is>
       </c>
     </row>
@@ -559,7 +558,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>564 664</t>
+          <t>2 066 394</t>
         </is>
       </c>
     </row>
@@ -591,7 +590,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>402 376</t>
+          <t>1 442 075</t>
         </is>
       </c>
     </row>
@@ -623,7 +622,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2 769 938</t>
+          <t>9 135 754</t>
         </is>
       </c>
     </row>
@@ -655,7 +654,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>856 183</t>
+          <t>2 904 681</t>
         </is>
       </c>
     </row>
@@ -687,7 +686,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>219 469</t>
+          <t>694 492</t>
         </is>
       </c>
     </row>
@@ -707,7 +706,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>70 767</t>
+          <t>253 513</t>
         </is>
       </c>
     </row>
@@ -739,7 +738,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>840 107</t>
+          <t>2 834 336</t>
         </is>
       </c>
     </row>
@@ -771,7 +770,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>618 079</t>
+          <t>2 189 299</t>
         </is>
       </c>
     </row>
@@ -803,7 +802,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>248 278</t>
+          <t>847 936</t>
         </is>
       </c>
     </row>
@@ -835,7 +834,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>678 610</t>
+          <t>2 390 244</t>
         </is>
       </c>
     </row>
@@ -867,7 +866,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>742 102</t>
+          <t>2 525 324</t>
         </is>
       </c>
     </row>
@@ -899,7 +898,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>138 202</t>
+          <t>514 349</t>
         </is>
       </c>
     </row>
@@ -931,7 +930,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>209 351</t>
+          <t>758 031</t>
         </is>
       </c>
     </row>
@@ -951,7 +950,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>291 089</t>
+          <t>864 927</t>
         </is>
       </c>
     </row>
@@ -983,7 +982,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>652 452</t>
+          <t>1 993 561</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1014,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>473 310</t>
+          <t>1 533 308</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1046,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>493 436</t>
+          <t>1 639 900</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1078,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>234 953</t>
+          <t>852 055</t>
         </is>
       </c>
     </row>
